--- a/biology/Botanique/Galeuse/Galeuse.xlsx
+++ b/biology/Botanique/Galeuse/Galeuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Galeuse (ou Pigeonnet d'Armor) est le nom d'une variété de pomme originaire du Nord Finistère.
 Le pommier Galeuse produit des pommes à couteau croquantes, de bonne conservation, et d'une belle couleur jaune striée de rouge.
-Ce pommier doit son nom au fait que, au stade adulte, il présente sur ses branches des broussins ressemblant à des galles, hérissées de petites pointes qui sont des germes de racines, ce qui lui permet d'être très facilement bouturé[1]. Il suffit de planter à la bonne saison une branche bien lignifiée d'un an ou deux portant une galle pour obtenir une bouture.
+Ce pommier doit son nom au fait que, au stade adulte, il présente sur ses branches des broussins ressemblant à des galles, hérissées de petites pointes qui sont des germes de racines, ce qui lui permet d'être très facilement bouturé. Il suffit de planter à la bonne saison une branche bien lignifiée d'un an ou deux portant une galle pour obtenir une bouture.
 Cette variété peut également servir de porte-greffe à d'autres variétés car sa mise à fruit est rapide. En porte-greffe, sa vigueur est estimée entre le MM106 et le Franc.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'arbre est sensible à l'oïdium et au puceron lanigère (particulièrement sur ses galles) mais résiste relativement bien à la tavelure du pommier et au carpocapse.
 </t>
@@ -545,7 +559,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De vigueur moyenne, l'arbre adulte atteint une hauteur d'environ 4 mètres et présente un port retombant.
 Le Galeuse peut se greffer elle-même sur les porte-greffes, tels, par exemple, le MM27, EM9, MM106 ou le Franc. On obtient alors des fruits plus gros et plus savoureux.
